--- a/vhsi.xlsx
+++ b/vhsi.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -61,17 +61,17 @@
     <t>VHSI</t>
   </si>
   <si>
-    <t>LONG</t>
+    <t>SHORT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,11 +135,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -218,7 +213,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -253,7 +247,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -429,20 +422,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +473,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -497,7 +484,7 @@
         <v>15</v>
       </c>
       <c r="F2" s="2">
-        <v>43346.673611111109</v>
+        <v>43346.67361111111</v>
       </c>
       <c r="G2">
         <v>19.63</v>
@@ -506,7 +493,7 @@
         <v>5000</v>
       </c>
       <c r="I2" s="2">
-        <v>43347.673611111109</v>
+        <v>43347.67361111111</v>
       </c>
       <c r="J2">
         <v>18.73</v>
@@ -518,16 +505,16 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>-4699.9999999999927</v>
+        <v>4299.999999999993</v>
       </c>
       <c r="N2">
-        <v>-4.7885888945491519</v>
+        <v>4.381049414161989</v>
       </c>
       <c r="O2">
-        <v>-4699.9999999999927</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4299.999999999993</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -538,7 +525,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="2">
-        <v>43347.673611111109</v>
+        <v>43347.67361111111</v>
       </c>
       <c r="G3">
         <v>18.73</v>
@@ -547,7 +534,7 @@
         <v>5000</v>
       </c>
       <c r="I3" s="2">
-        <v>43348.673611111109</v>
+        <v>43348.67361111111</v>
       </c>
       <c r="J3">
         <v>20.5</v>
@@ -559,16 +546,16 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>8649.9999999999982</v>
+        <v>-9049.999999999998</v>
       </c>
       <c r="N3">
-        <v>9.2365189535504513</v>
+        <v>-9.66364121729845</v>
       </c>
       <c r="O3">
-        <v>8649.9999999999982</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-9049.999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -579,7 +566,7 @@
         <v>15</v>
       </c>
       <c r="F4" s="2">
-        <v>43348.673611111109</v>
+        <v>43348.67361111111</v>
       </c>
       <c r="G4">
         <v>20.5</v>
@@ -588,7 +575,7 @@
         <v>5000</v>
       </c>
       <c r="I4" s="2">
-        <v>43349.673611111109</v>
+        <v>43349.67361111111</v>
       </c>
       <c r="J4">
         <v>21.42</v>
@@ -600,16 +587,16 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>4400.0000000000082</v>
+        <v>-4800.000000000008</v>
       </c>
       <c r="N4">
-        <v>4.2926829268292774</v>
+        <v>-4.682926829268301</v>
       </c>
       <c r="O4">
-        <v>4400.0000000000082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-4800.000000000008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -620,7 +607,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2">
-        <v>43349.673611111109</v>
+        <v>43349.67361111111</v>
       </c>
       <c r="G5">
         <v>21.42</v>
@@ -629,7 +616,7 @@
         <v>5000</v>
       </c>
       <c r="I5" s="2">
-        <v>43350.673611111109</v>
+        <v>43350.67361111111</v>
       </c>
       <c r="J5">
         <v>21.34</v>
@@ -641,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>-600.00000000000921</v>
+        <v>200.0000000000092</v>
       </c>
       <c r="N5">
-        <v>-0.5602240896358629</v>
+        <v>0.18674136321196</v>
       </c>
       <c r="O5">
-        <v>-600.00000000000921</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+        <v>200.0000000000092</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -661,7 +648,7 @@
         <v>15</v>
       </c>
       <c r="F6" s="2">
-        <v>43350.673611111109</v>
+        <v>43350.67361111111</v>
       </c>
       <c r="G6">
         <v>21.34</v>
@@ -670,7 +657,7 @@
         <v>5000</v>
       </c>
       <c r="I6" s="2">
-        <v>43353.673611111109</v>
+        <v>43353.67361111111</v>
       </c>
       <c r="J6">
         <v>22.07</v>
@@ -682,16 +669,16 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>3450.0000000000018</v>
+        <v>-3850.000000000002</v>
       </c>
       <c r="N6">
-        <v>3.233364573570761</v>
+        <v>-3.608247422680415</v>
       </c>
       <c r="O6">
-        <v>3450.0000000000018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-3850.000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -702,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2">
-        <v>43353.673611111109</v>
+        <v>43353.67361111111</v>
       </c>
       <c r="G7">
         <v>22.07</v>
@@ -711,7 +698,7 @@
         <v>5000</v>
       </c>
       <c r="I7" s="2">
-        <v>43354.673611111109</v>
+        <v>43354.67361111111</v>
       </c>
       <c r="J7">
         <v>21.79</v>
@@ -723,16 +710,16 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-1600.0000000000059</v>
+        <v>1200.000000000006</v>
       </c>
       <c r="N7">
-        <v>-1.449932034435891</v>
+        <v>1.087449025826919</v>
       </c>
       <c r="O7">
-        <v>-1600.0000000000059</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1200.000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -743,7 +730,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="2">
-        <v>43354.673611111109</v>
+        <v>43354.67361111111</v>
       </c>
       <c r="G8">
         <v>21.79</v>
@@ -752,7 +739,7 @@
         <v>5000</v>
       </c>
       <c r="I8" s="2">
-        <v>43355.673611111109</v>
+        <v>43355.67361111111</v>
       </c>
       <c r="J8">
         <v>21.09</v>
@@ -764,16 +751,16 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>-3699.9999999999959</v>
+        <v>3299.999999999996</v>
       </c>
       <c r="N8">
-        <v>-3.396053235429092</v>
+        <v>3.028912345112434</v>
       </c>
       <c r="O8">
-        <v>-3699.9999999999959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3299.999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -784,7 +771,7 @@
         <v>15</v>
       </c>
       <c r="F9" s="2">
-        <v>43355.673611111109</v>
+        <v>43355.67361111111</v>
       </c>
       <c r="G9">
         <v>21.09</v>
@@ -793,7 +780,7 @@
         <v>5000</v>
       </c>
       <c r="I9" s="2">
-        <v>43356.673611111109</v>
+        <v>43356.67361111111</v>
       </c>
       <c r="J9">
         <v>19.89</v>
@@ -805,16 +792,16 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>-6199.9999999999964</v>
+        <v>5799.999999999996</v>
       </c>
       <c r="N9">
-        <v>-5.8795637743006131</v>
+        <v>5.500237079184444</v>
       </c>
       <c r="O9">
-        <v>-6199.9999999999964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5799.999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -825,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="F10" s="2">
-        <v>43356.673611111109</v>
+        <v>43356.67361111111</v>
       </c>
       <c r="G10">
         <v>19.89</v>
@@ -834,7 +821,7 @@
         <v>5000</v>
       </c>
       <c r="I10" s="2">
-        <v>43357.673611111109</v>
+        <v>43357.67361111111</v>
       </c>
       <c r="J10">
         <v>19</v>
@@ -846,16 +833,16 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>-4650.0000000000027</v>
+        <v>4250.000000000003</v>
       </c>
       <c r="N10">
-        <v>-4.6757164404223257</v>
+        <v>4.273504273504276</v>
       </c>
       <c r="O10">
-        <v>-4650.0000000000027</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4250.000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -866,7 +853,7 @@
         <v>15</v>
       </c>
       <c r="F11" s="2">
-        <v>43357.673611111109</v>
+        <v>43357.67361111111</v>
       </c>
       <c r="G11">
         <v>19</v>
@@ -875,7 +862,7 @@
         <v>5000</v>
       </c>
       <c r="I11" s="2">
-        <v>43360.673611111109</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="J11">
         <v>19.66</v>
@@ -887,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>3100.0000000000009</v>
+        <v>-3500.000000000001</v>
       </c>
       <c r="N11">
-        <v>3.2631578947368429</v>
+        <v>-3.684210526315791</v>
       </c>
       <c r="O11">
-        <v>3100.0000000000009</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-3500.000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -907,7 +894,7 @@
         <v>15</v>
       </c>
       <c r="F12" s="2">
-        <v>43360.673611111109</v>
+        <v>43360.67361111111</v>
       </c>
       <c r="G12">
         <v>19.66</v>
@@ -916,7 +903,7 @@
         <v>5000</v>
       </c>
       <c r="I12" s="2">
-        <v>43361.673611111109</v>
+        <v>43361.67361111111</v>
       </c>
       <c r="J12">
         <v>20.05</v>
@@ -928,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1750.000000000003</v>
+        <v>-2150.000000000003</v>
       </c>
       <c r="N12">
-        <v>1.780264496439474</v>
+        <v>-2.187182095625638</v>
       </c>
       <c r="O12">
-        <v>1750.000000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-2150.000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -948,7 +935,7 @@
         <v>15</v>
       </c>
       <c r="F13" s="2">
-        <v>43361.673611111109</v>
+        <v>43361.67361111111</v>
       </c>
       <c r="G13">
         <v>20.05</v>
@@ -957,7 +944,7 @@
         <v>5000</v>
       </c>
       <c r="I13" s="2">
-        <v>43362.673611111109</v>
+        <v>43362.67361111111</v>
       </c>
       <c r="J13">
         <v>19.38</v>
@@ -969,16 +956,16 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>-3550.0000000000091</v>
+        <v>3150.000000000009</v>
       </c>
       <c r="N13">
-        <v>-3.5411471321695842</v>
+        <v>3.142144638403999</v>
       </c>
       <c r="O13">
-        <v>-3550.0000000000091</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3150.000000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -989,7 +976,7 @@
         <v>15</v>
       </c>
       <c r="F14" s="2">
-        <v>43362.673611111109</v>
+        <v>43362.67361111111</v>
       </c>
       <c r="G14">
         <v>19.38</v>
@@ -998,7 +985,7 @@
         <v>5000</v>
       </c>
       <c r="I14" s="2">
-        <v>43363.673611111109</v>
+        <v>43363.67361111111</v>
       </c>
       <c r="J14">
         <v>18.62</v>
@@ -1010,16 +997,16 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>-3999.99999999999</v>
+        <v>3599.99999999999</v>
       </c>
       <c r="N14">
-        <v>-4.1279669762641804</v>
+        <v>3.715170278637761</v>
       </c>
       <c r="O14">
-        <v>-3999.99999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3599.99999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1030,7 +1017,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="2">
-        <v>43363.673611111109</v>
+        <v>43363.67361111111</v>
       </c>
       <c r="G15">
         <v>18.62</v>
@@ -1039,7 +1026,7 @@
         <v>5000</v>
       </c>
       <c r="I15" s="2">
-        <v>43364.673611111109</v>
+        <v>43364.67361111111</v>
       </c>
       <c r="J15">
         <v>19.11</v>
@@ -1051,16 +1038,16 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2249.9999999999918</v>
+        <v>-2649.999999999992</v>
       </c>
       <c r="N15">
-        <v>2.4167561761546641</v>
+        <v>-2.846401718582161</v>
       </c>
       <c r="O15">
-        <v>2249.9999999999918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-2649.999999999992</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1071,7 +1058,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="2">
-        <v>43364.673611111109</v>
+        <v>43364.67361111111</v>
       </c>
       <c r="G16">
         <v>19.11</v>
@@ -1080,7 +1067,7 @@
         <v>5000</v>
       </c>
       <c r="I16" s="2">
-        <v>43367.673611111109</v>
+        <v>43367.67361111111</v>
       </c>
       <c r="J16">
         <v>19.75</v>
@@ -1092,16 +1079,16 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>3000.0000000000032</v>
+        <v>-3400.000000000003</v>
       </c>
       <c r="N16">
-        <v>3.1397174254317139</v>
+        <v>-3.558346415489275</v>
       </c>
       <c r="O16">
-        <v>3000.0000000000032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-3400.000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1112,7 +1099,7 @@
         <v>15</v>
       </c>
       <c r="F17" s="2">
-        <v>43367.673611111109</v>
+        <v>43367.67361111111</v>
       </c>
       <c r="G17">
         <v>19.75</v>
@@ -1121,7 +1108,7 @@
         <v>5000</v>
       </c>
       <c r="I17" s="2">
-        <v>43368.673611111109</v>
+        <v>43368.67361111111</v>
       </c>
       <c r="J17">
         <v>19.75</v>
@@ -1136,13 +1123,13 @@
         <v>-200</v>
       </c>
       <c r="N17">
-        <v>-0.20253164556962031</v>
+        <v>-0.2025316455696203</v>
       </c>
       <c r="O17">
         <v>-200</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1153,7 +1140,7 @@
         <v>15</v>
       </c>
       <c r="F18" s="2">
-        <v>43368.673611111109</v>
+        <v>43368.67361111111</v>
       </c>
       <c r="G18">
         <v>19.75</v>
@@ -1162,10 +1149,10 @@
         <v>5000</v>
       </c>
       <c r="I18" s="2">
-        <v>43369.673611111109</v>
+        <v>43369.67361111111</v>
       </c>
       <c r="J18">
-        <v>20.010000000000002</v>
+        <v>20.01</v>
       </c>
       <c r="K18">
         <v>200</v>
@@ -1174,16 +1161,16 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1100.000000000008</v>
+        <v>-1500.000000000008</v>
       </c>
       <c r="N18">
-        <v>1.1139240506329191</v>
+        <v>-1.51898734177216</v>
       </c>
       <c r="O18">
-        <v>1100.000000000008</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-1500.000000000008</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1194,19 +1181,19 @@
         <v>15</v>
       </c>
       <c r="F19" s="2">
-        <v>43369.673611111109</v>
+        <v>43369.67361111111</v>
       </c>
       <c r="G19">
-        <v>20.010000000000002</v>
+        <v>20.01</v>
       </c>
       <c r="H19">
         <v>5000</v>
       </c>
       <c r="I19" s="2">
-        <v>43370.673611111109</v>
+        <v>43370.67361111111</v>
       </c>
       <c r="J19">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="K19">
         <v>200</v>
@@ -1215,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-5550.0000000000018</v>
+        <v>5150.000000000002</v>
       </c>
       <c r="N19">
-        <v>-5.5472263868065976</v>
+        <v>5.147426286856573</v>
       </c>
       <c r="O19">
-        <v>-5550.0000000000018</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5150.000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1235,19 +1222,19 @@
         <v>15</v>
       </c>
       <c r="F20" s="2">
-        <v>43370.673611111109</v>
+        <v>43370.67361111111</v>
       </c>
       <c r="G20">
-        <v>18.940000000000001</v>
+        <v>18.94</v>
       </c>
       <c r="H20">
         <v>5000</v>
       </c>
       <c r="I20" s="2">
-        <v>43371.673611111109</v>
+        <v>43371.67361111111</v>
       </c>
       <c r="J20">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="K20">
         <v>200</v>
@@ -1256,16 +1243,16 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>-4399.9999999999991</v>
+        <v>3999.999999999999</v>
       </c>
       <c r="N20">
-        <v>-4.6462513199577602</v>
+        <v>4.223864836325237</v>
       </c>
       <c r="O20">
-        <v>-4399.9999999999991</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3999.999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1276,19 +1263,19 @@
         <v>15</v>
       </c>
       <c r="F21" s="2">
-        <v>43371.673611111109</v>
+        <v>43371.67361111111</v>
       </c>
       <c r="G21">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="H21">
         <v>5000</v>
       </c>
       <c r="I21" s="2">
-        <v>43374.673611111109</v>
+        <v>43374.67361111111</v>
       </c>
       <c r="J21">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="K21">
         <v>200</v>
@@ -1300,13 +1287,13 @@
         <v>-200</v>
       </c>
       <c r="N21">
-        <v>-0.22099447513812159</v>
+        <v>-0.2209944751381216</v>
       </c>
       <c r="O21">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1317,16 +1304,16 @@
         <v>15</v>
       </c>
       <c r="F22" s="2">
-        <v>43374.673611111109</v>
+        <v>43374.67361111111</v>
       </c>
       <c r="G22">
-        <v>18.100000000000001</v>
+        <v>18.1</v>
       </c>
       <c r="H22">
         <v>5000</v>
       </c>
       <c r="I22" s="2">
-        <v>43375.673611111109</v>
+        <v>43375.67361111111</v>
       </c>
       <c r="J22">
         <v>20.14</v>
@@ -1338,16 +1325,16 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>9999.9999999999964</v>
+        <v>-10400</v>
       </c>
       <c r="N22">
-        <v>11.04972375690607</v>
+        <v>-11.49171270718232</v>
       </c>
       <c r="O22">
-        <v>9999.9999999999964</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-10400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1358,7 +1345,7 @@
         <v>15</v>
       </c>
       <c r="F23" s="2">
-        <v>43375.673611111109</v>
+        <v>43375.67361111111</v>
       </c>
       <c r="G23">
         <v>20.14</v>
@@ -1367,7 +1354,7 @@
         <v>5000</v>
       </c>
       <c r="I23" s="2">
-        <v>43376.673611111109</v>
+        <v>43376.67361111111</v>
       </c>
       <c r="J23">
         <v>19.71</v>
@@ -1379,16 +1366,16 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-2349.9999999999991</v>
+        <v>1949.999999999999</v>
       </c>
       <c r="N23">
-        <v>-2.3336643495531271</v>
+        <v>1.936444885799403</v>
       </c>
       <c r="O23">
-        <v>-2349.9999999999991</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1949.999999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1399,7 +1386,7 @@
         <v>15</v>
       </c>
       <c r="F24" s="2">
-        <v>43376.673611111109</v>
+        <v>43376.67361111111</v>
       </c>
       <c r="G24">
         <v>19.71</v>
@@ -1408,7 +1395,7 @@
         <v>5000</v>
       </c>
       <c r="I24" s="2">
-        <v>43377.673611111109</v>
+        <v>43377.67361111111</v>
       </c>
       <c r="J24">
         <v>20.72</v>
@@ -1420,16 +1407,16 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>4849.99999999999</v>
+        <v>-5249.99999999999</v>
       </c>
       <c r="N24">
-        <v>4.9213597158802536</v>
+        <v>-5.32724505327244</v>
       </c>
       <c r="O24">
-        <v>4849.99999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-5249.99999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1440,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="F25" s="2">
-        <v>43377.673611111109</v>
+        <v>43377.67361111111</v>
       </c>
       <c r="G25">
         <v>20.72</v>
@@ -1449,7 +1436,7 @@
         <v>5000</v>
       </c>
       <c r="I25" s="2">
-        <v>43378.673611111109</v>
+        <v>43378.67361111111</v>
       </c>
       <c r="J25">
         <v>20.7</v>
@@ -1461,16 +1448,16 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>-299.99999999999778</v>
+        <v>-100.0000000000021</v>
       </c>
       <c r="N25">
-        <v>-0.2895752895752875</v>
+        <v>-0.09652509652509858</v>
       </c>
       <c r="O25">
-        <v>-299.99999999999778</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-100.0000000000021</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1481,7 +1468,7 @@
         <v>15</v>
       </c>
       <c r="F26" s="2">
-        <v>43378.673611111109</v>
+        <v>43378.67361111111</v>
       </c>
       <c r="G26">
         <v>20.7</v>
@@ -1490,7 +1477,7 @@
         <v>5000</v>
       </c>
       <c r="I26" s="2">
-        <v>43381.673611111109</v>
+        <v>43381.67361111111</v>
       </c>
       <c r="J26">
         <v>21.29</v>
@@ -1502,16 +1489,16 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2749.9999999999991</v>
+        <v>-3149.999999999999</v>
       </c>
       <c r="N26">
-        <v>2.6570048309178729</v>
+        <v>-3.043478260869565</v>
       </c>
       <c r="O26">
-        <v>2749.9999999999991</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-3149.999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1522,7 +1509,7 @@
         <v>15</v>
       </c>
       <c r="F27" s="2">
-        <v>43381.673611111109</v>
+        <v>43381.67361111111</v>
       </c>
       <c r="G27">
         <v>21.29</v>
@@ -1531,7 +1518,7 @@
         <v>5000</v>
       </c>
       <c r="I27" s="2">
-        <v>43382.673611111109</v>
+        <v>43382.67361111111</v>
       </c>
       <c r="J27">
         <v>21.07</v>
@@ -1543,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-1299.9999999999941</v>
+        <v>899.9999999999943</v>
       </c>
       <c r="N27">
-        <v>-1.22123062470643</v>
+        <v>0.8454673555659881</v>
       </c>
       <c r="O27">
-        <v>-1299.9999999999941</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+        <v>899.9999999999943</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1563,7 +1550,7 @@
         <v>15</v>
       </c>
       <c r="F28" s="2">
-        <v>43382.673611111109</v>
+        <v>43382.67361111111</v>
       </c>
       <c r="G28">
         <v>21.07</v>
@@ -1572,7 +1559,7 @@
         <v>5000</v>
       </c>
       <c r="I28" s="2">
-        <v>43383.673611111109</v>
+        <v>43383.67361111111</v>
       </c>
       <c r="J28">
         <v>20.89</v>
@@ -1584,16 +1571,16 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>-1099.9999999999991</v>
+        <v>699.9999999999986</v>
       </c>
       <c r="N28">
-        <v>-1.044138585666823</v>
+        <v>0.6644518272425236</v>
       </c>
       <c r="O28">
-        <v>-1099.9999999999991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+        <v>699.9999999999986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1604,7 +1591,7 @@
         <v>15</v>
       </c>
       <c r="F29" s="2">
-        <v>43383.673611111109</v>
+        <v>43383.67361111111</v>
       </c>
       <c r="G29">
         <v>20.89</v>
@@ -1613,7 +1600,7 @@
         <v>5000</v>
       </c>
       <c r="I29" s="2">
-        <v>43384.673611111109</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="J29">
         <v>25.73</v>
@@ -1625,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>24000</v>
+        <v>-24400</v>
       </c>
       <c r="N29">
-        <v>22.97750119674485</v>
+        <v>-23.36045955002394</v>
       </c>
       <c r="O29">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-24400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1645,7 +1632,7 @@
         <v>15</v>
       </c>
       <c r="F30" s="2">
-        <v>43384.673611111109</v>
+        <v>43384.67361111111</v>
       </c>
       <c r="G30">
         <v>25.73</v>
@@ -1654,7 +1641,7 @@
         <v>5000</v>
       </c>
       <c r="I30" s="2">
-        <v>43385.673611111109</v>
+        <v>43385.67361111111</v>
       </c>
       <c r="J30">
         <v>23.76</v>
@@ -1666,16 +1653,16 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>-10049.999999999991</v>
+        <v>9649.999999999995</v>
       </c>
       <c r="N30">
-        <v>-7.811892732219194</v>
+        <v>7.500971628449276</v>
       </c>
       <c r="O30">
-        <v>-10049.999999999991</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9649.999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1686,7 +1673,7 @@
         <v>15</v>
       </c>
       <c r="F31" s="2">
-        <v>43385.673611111109</v>
+        <v>43385.67361111111</v>
       </c>
       <c r="G31">
         <v>23.76</v>
@@ -1695,7 +1682,7 @@
         <v>5000</v>
       </c>
       <c r="I31" s="2">
-        <v>43388.673611111109</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="J31">
         <v>25.16</v>
@@ -1707,16 +1694,16 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>6799.9999999999927</v>
+        <v>-7199.999999999993</v>
       </c>
       <c r="N31">
-        <v>5.7239057239057169</v>
+        <v>-6.060606060606053</v>
       </c>
       <c r="O31">
-        <v>6799.9999999999927</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-7199.999999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1727,7 +1714,7 @@
         <v>15</v>
       </c>
       <c r="F32" s="2">
-        <v>43388.673611111109</v>
+        <v>43388.67361111111</v>
       </c>
       <c r="G32">
         <v>25.16</v>
@@ -1736,7 +1723,7 @@
         <v>5000</v>
       </c>
       <c r="I32" s="2">
-        <v>43389.673611111109</v>
+        <v>43389.67361111111</v>
       </c>
       <c r="J32">
         <v>24.41</v>
@@ -1748,16 +1735,16 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>-3950</v>
+        <v>3550</v>
       </c>
       <c r="N32">
-        <v>-3.1399046104928461</v>
+        <v>2.821939586645469</v>
       </c>
       <c r="O32">
-        <v>-3950</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1768,7 +1755,7 @@
         <v>15</v>
       </c>
       <c r="F33" s="2">
-        <v>43389.673611111109</v>
+        <v>43389.67361111111</v>
       </c>
       <c r="G33">
         <v>24.41</v>
@@ -1777,7 +1764,7 @@
         <v>5000</v>
       </c>
       <c r="I33" s="2">
-        <v>43390.673611111109</v>
+        <v>43390.67361111111</v>
       </c>
       <c r="J33">
         <v>24.41</v>
@@ -1792,13 +1779,13 @@
         <v>-200</v>
       </c>
       <c r="N33">
-        <v>-0.16386726751331421</v>
+        <v>-0.1638672675133142</v>
       </c>
       <c r="O33">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1809,7 +1796,7 @@
         <v>15</v>
       </c>
       <c r="F34" s="2">
-        <v>43390.673611111109</v>
+        <v>43390.67361111111</v>
       </c>
       <c r="G34">
         <v>24.41</v>
@@ -1818,7 +1805,7 @@
         <v>5000</v>
       </c>
       <c r="I34" s="2">
-        <v>43391.673611111109</v>
+        <v>43391.67361111111</v>
       </c>
       <c r="J34">
         <v>24.27</v>
@@ -1830,16 +1817,16 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>-900.00000000000284</v>
+        <v>500.0000000000028</v>
       </c>
       <c r="N34">
-        <v>-0.73740270380991624</v>
+        <v>0.4096681687832879</v>
       </c>
       <c r="O34">
-        <v>-900.00000000000284</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+        <v>500.0000000000028</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1850,7 +1837,7 @@
         <v>15</v>
       </c>
       <c r="F35" s="2">
-        <v>43391.673611111109</v>
+        <v>43391.67361111111</v>
       </c>
       <c r="G35">
         <v>24.27</v>
@@ -1859,7 +1846,7 @@
         <v>5000</v>
       </c>
       <c r="I35" s="2">
-        <v>43392.673611111109</v>
+        <v>43392.67361111111</v>
       </c>
       <c r="J35">
         <v>23.68</v>
@@ -1871,16 +1858,16 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-3149.9999999999991</v>
+        <v>2749.999999999999</v>
       </c>
       <c r="N35">
-        <v>-2.5957972805933238</v>
+        <v>2.26617222908941</v>
       </c>
       <c r="O35">
-        <v>-3149.9999999999991</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2749.999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1891,7 +1878,7 @@
         <v>15</v>
       </c>
       <c r="F36" s="2">
-        <v>43392.673611111109</v>
+        <v>43392.67361111111</v>
       </c>
       <c r="G36">
         <v>23.68</v>
@@ -1900,7 +1887,7 @@
         <v>5000</v>
       </c>
       <c r="I36" s="2">
-        <v>43395.673611111109</v>
+        <v>43395.67361111111</v>
       </c>
       <c r="J36">
         <v>23.67</v>
@@ -1912,16 +1899,16 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>-249.99999999999011</v>
+        <v>-150.0000000000099</v>
       </c>
       <c r="N36">
-        <v>-0.21114864864864019</v>
+        <v>-0.1266891891891976</v>
       </c>
       <c r="O36">
-        <v>-249.99999999999011</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-150.0000000000099</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1932,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="F37" s="2">
-        <v>43395.673611111109</v>
+        <v>43395.67361111111</v>
       </c>
       <c r="G37">
         <v>23.67</v>
@@ -1941,7 +1928,7 @@
         <v>5000</v>
       </c>
       <c r="I37" s="2">
-        <v>43396.673611111109</v>
+        <v>43396.67361111111</v>
       </c>
       <c r="J37">
         <v>26.67</v>
@@ -1953,16 +1940,16 @@
         <v>0</v>
       </c>
       <c r="M37">
-        <v>14800</v>
+        <v>-15200</v>
       </c>
       <c r="N37">
-        <v>12.505280946345581</v>
+        <v>-12.84326151246303</v>
       </c>
       <c r="O37">
-        <v>14800</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-15200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1973,7 +1960,7 @@
         <v>15</v>
       </c>
       <c r="F38" s="2">
-        <v>43396.673611111109</v>
+        <v>43396.67361111111</v>
       </c>
       <c r="G38">
         <v>26.67</v>
@@ -1982,7 +1969,7 @@
         <v>5000</v>
       </c>
       <c r="I38" s="2">
-        <v>43397.673611111109</v>
+        <v>43397.67361111111</v>
       </c>
       <c r="J38">
         <v>26.31</v>
@@ -1994,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>-2000.000000000015</v>
+        <v>1600.000000000015</v>
       </c>
       <c r="N38">
-        <v>-1.499812523434582</v>
+        <v>1.199850018747668</v>
       </c>
       <c r="O38">
-        <v>-2000.000000000015</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1600.000000000015</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2014,7 +2001,7 @@
         <v>15</v>
       </c>
       <c r="F39" s="2">
-        <v>43397.673611111109</v>
+        <v>43397.67361111111</v>
       </c>
       <c r="G39">
         <v>26.31</v>
@@ -2023,7 +2010,7 @@
         <v>5000</v>
       </c>
       <c r="I39" s="2">
-        <v>43398.673611111109</v>
+        <v>43398.67361111111</v>
       </c>
       <c r="J39">
         <v>27.81</v>
@@ -2035,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="M39">
-        <v>7300</v>
+        <v>-7700</v>
       </c>
       <c r="N39">
-        <v>5.5492208285822882</v>
+        <v>-5.853287723299125</v>
       </c>
       <c r="O39">
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-7700</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2055,7 +2042,7 @@
         <v>15</v>
       </c>
       <c r="F40" s="2">
-        <v>43398.673611111109</v>
+        <v>43398.67361111111</v>
       </c>
       <c r="G40">
         <v>27.81</v>
@@ -2064,7 +2051,7 @@
         <v>5000</v>
       </c>
       <c r="I40" s="2">
-        <v>43399.673611111109</v>
+        <v>43399.67361111111</v>
       </c>
       <c r="J40">
         <v>29.07</v>
@@ -2076,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>6100.0000000000082</v>
+        <v>-6500.000000000008</v>
       </c>
       <c r="N40">
-        <v>4.3869111830276939</v>
+        <v>-4.674577490111476</v>
       </c>
       <c r="O40">
-        <v>6100.0000000000082</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-6500.000000000008</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2096,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="F41" s="2">
-        <v>43399.673611111109</v>
+        <v>43399.67361111111</v>
       </c>
       <c r="G41">
         <v>29.07</v>
@@ -2105,7 +2092,7 @@
         <v>5000</v>
       </c>
       <c r="I41" s="2">
-        <v>43402.673611111109</v>
+        <v>43402.67361111111</v>
       </c>
       <c r="J41">
         <v>28.36</v>
@@ -2117,16 +2104,16 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>-3750.0000000000041</v>
+        <v>3350.000000000004</v>
       </c>
       <c r="N41">
-        <v>-2.579979360165122</v>
+        <v>2.304781561747509</v>
       </c>
       <c r="O41">
-        <v>-3750.0000000000041</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3350.000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2137,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="2">
-        <v>43402.673611111109</v>
+        <v>43402.67361111111</v>
       </c>
       <c r="G42">
         <v>28.36</v>
@@ -2146,7 +2133,7 @@
         <v>5000</v>
       </c>
       <c r="I42" s="2">
-        <v>43403.673611111109</v>
+        <v>43403.67361111111</v>
       </c>
       <c r="J42">
         <v>27.85</v>
@@ -2158,16 +2145,16 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>-2749.99999999999</v>
+        <v>2349.99999999999</v>
       </c>
       <c r="N42">
-        <v>-1.939351198871643</v>
+        <v>1.65726375176304</v>
       </c>
       <c r="O42">
-        <v>-2749.99999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+        <v>2349.99999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2178,7 +2165,7 @@
         <v>15</v>
       </c>
       <c r="F43" s="2">
-        <v>43403.673611111109</v>
+        <v>43403.67361111111</v>
       </c>
       <c r="G43">
         <v>27.85</v>
@@ -2187,7 +2174,7 @@
         <v>5000</v>
       </c>
       <c r="I43" s="2">
-        <v>43404.673611111109</v>
+        <v>43404.67361111111</v>
       </c>
       <c r="J43">
         <v>25.87</v>
@@ -2199,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>-10100</v>
+        <v>9700.000000000002</v>
       </c>
       <c r="N43">
-        <v>-7.2531418312387812</v>
+        <v>6.965888689407541</v>
       </c>
       <c r="O43">
-        <v>-10100</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+        <v>9700.000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2219,7 +2206,7 @@
         <v>15</v>
       </c>
       <c r="F44" s="2">
-        <v>43404.673611111109</v>
+        <v>43404.67361111111</v>
       </c>
       <c r="G44">
         <v>25.87</v>
@@ -2228,7 +2215,7 @@
         <v>5000</v>
       </c>
       <c r="I44" s="2">
-        <v>43405.673611111109</v>
+        <v>43405.67361111111</v>
       </c>
       <c r="J44">
         <v>24.18</v>
@@ -2240,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>-8650.0000000000073</v>
+        <v>8250.000000000007</v>
       </c>
       <c r="N44">
-        <v>-6.6872825666795572</v>
+        <v>6.378044066486282</v>
       </c>
       <c r="O44">
-        <v>-8650.0000000000073</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+        <v>8250.000000000007</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2260,7 +2247,7 @@
         <v>15</v>
       </c>
       <c r="F45" s="2">
-        <v>43405.673611111109</v>
+        <v>43405.67361111111</v>
       </c>
       <c r="G45">
         <v>24.18</v>
@@ -2269,7 +2256,7 @@
         <v>5000</v>
       </c>
       <c r="I45" s="2">
-        <v>43406.673611111109</v>
+        <v>43406.67361111111</v>
       </c>
       <c r="J45">
         <v>24.94</v>
@@ -2281,16 +2268,16 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>3600.0000000000082</v>
+        <v>-4000.000000000008</v>
       </c>
       <c r="N45">
-        <v>2.977667493796532</v>
+        <v>-3.308519437551702</v>
       </c>
       <c r="O45">
-        <v>3600.0000000000082</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-4000.000000000008</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2301,7 +2288,7 @@
         <v>15</v>
       </c>
       <c r="F46" s="2">
-        <v>43406.673611111109</v>
+        <v>43406.67361111111</v>
       </c>
       <c r="G46">
         <v>24.94</v>
@@ -2310,7 +2297,7 @@
         <v>5000</v>
       </c>
       <c r="I46" s="2">
-        <v>43409.673611111109</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="J46">
         <v>27.08</v>
@@ -2322,16 +2309,16 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>10499.999999999991</v>
+        <v>-10899.99999999999</v>
       </c>
       <c r="N46">
-        <v>8.4202085004009515</v>
+        <v>-8.740978348035274</v>
       </c>
       <c r="O46">
-        <v>10499.999999999991</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-10899.99999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2342,7 +2329,7 @@
         <v>15</v>
       </c>
       <c r="F47" s="2">
-        <v>43409.673611111109</v>
+        <v>43409.67361111111</v>
       </c>
       <c r="G47">
         <v>27.08</v>
@@ -2351,7 +2338,7 @@
         <v>5000</v>
       </c>
       <c r="I47" s="2">
-        <v>43410.673611111109</v>
+        <v>43410.67361111111</v>
       </c>
       <c r="J47">
         <v>26.2</v>
@@ -2363,16 +2350,16 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <v>-4599.9999999999955</v>
+        <v>4199.999999999995</v>
       </c>
       <c r="N47">
-        <v>-3.397341211225994</v>
+        <v>3.101920236336777</v>
       </c>
       <c r="O47">
-        <v>-4599.9999999999955</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+        <v>4199.999999999995</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2383,7 +2370,7 @@
         <v>15</v>
       </c>
       <c r="F48" s="2">
-        <v>43410.673611111109</v>
+        <v>43410.67361111111</v>
       </c>
       <c r="G48">
         <v>26.2</v>
@@ -2392,7 +2379,7 @@
         <v>5000</v>
       </c>
       <c r="I48" s="2">
-        <v>43411.673611111109</v>
+        <v>43411.67361111111</v>
       </c>
       <c r="J48">
         <v>25.05</v>
@@ -2404,16 +2391,16 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>-5949.9999999999927</v>
+        <v>5549.999999999993</v>
       </c>
       <c r="N48">
-        <v>-4.5419847328244218</v>
+        <v>4.23664122137404</v>
       </c>
       <c r="O48">
-        <v>-5949.9999999999927</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+        <v>5549.999999999993</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2424,7 +2411,7 @@
         <v>15</v>
       </c>
       <c r="F49" s="2">
-        <v>43411.673611111109</v>
+        <v>43411.67361111111</v>
       </c>
       <c r="G49">
         <v>25.05</v>
@@ -2433,7 +2420,7 @@
         <v>5000</v>
       </c>
       <c r="I49" s="2">
-        <v>43412.673611111109</v>
+        <v>43412.67361111111</v>
       </c>
       <c r="J49">
         <v>22.95</v>
@@ -2445,16 +2432,16 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>-10700.000000000009</v>
+        <v>10300.00000000001</v>
       </c>
       <c r="N49">
-        <v>-8.5429141716566939</v>
+        <v>8.223552894211583</v>
       </c>
       <c r="O49">
-        <v>-10700.000000000009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+        <v>10300.00000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2465,7 +2452,7 @@
         <v>15</v>
       </c>
       <c r="F50" s="2">
-        <v>43412.673611111109</v>
+        <v>43412.67361111111</v>
       </c>
       <c r="G50">
         <v>22.95</v>
@@ -2474,7 +2461,7 @@
         <v>5000</v>
       </c>
       <c r="I50" s="2">
-        <v>43413.673611111109</v>
+        <v>43413.67361111111</v>
       </c>
       <c r="J50">
         <v>23.86</v>
@@ -2486,16 +2473,16 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>4350.0000000000009</v>
+        <v>-4750.000000000001</v>
       </c>
       <c r="N50">
-        <v>3.790849673202616</v>
+        <v>-4.139433551198258</v>
       </c>
       <c r="O50">
-        <v>4350.0000000000009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-4750.000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2506,7 +2493,7 @@
         <v>15</v>
       </c>
       <c r="F51" s="2">
-        <v>43413.673611111109</v>
+        <v>43413.67361111111</v>
       </c>
       <c r="G51">
         <v>23.86</v>
@@ -2515,7 +2502,7 @@
         <v>5000</v>
       </c>
       <c r="I51" s="2">
-        <v>43416.673611111109</v>
+        <v>43416.67361111111</v>
       </c>
       <c r="J51">
         <v>23.42</v>
@@ -2527,16 +2514,16 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>-2399.9999999999891</v>
+        <v>1999.999999999989</v>
       </c>
       <c r="N51">
-        <v>-2.01173512154232</v>
+        <v>1.676445934618599</v>
       </c>
       <c r="O51">
-        <v>-2399.9999999999891</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1999.999999999989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2547,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="F52" s="2">
-        <v>43416.673611111109</v>
+        <v>43416.67361111111</v>
       </c>
       <c r="G52">
         <v>23.42</v>
@@ -2556,7 +2543,7 @@
         <v>5000</v>
       </c>
       <c r="I52" s="2">
-        <v>43417.673611111109</v>
+        <v>43417.67361111111</v>
       </c>
       <c r="J52">
         <v>23.75</v>
@@ -2568,16 +2555,16 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>1449.9999999999909</v>
+        <v>-1849.999999999991</v>
       </c>
       <c r="N52">
-        <v>1.238257899231419</v>
+        <v>-1.579846285226295</v>
       </c>
       <c r="O52">
-        <v>1449.9999999999909</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-1849.999999999991</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2588,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="F53" s="2">
-        <v>43417.673611111109</v>
+        <v>43417.67361111111</v>
       </c>
       <c r="G53">
         <v>23.75</v>
@@ -2597,7 +2584,7 @@
         <v>5000</v>
       </c>
       <c r="I53" s="2">
-        <v>43418.673611111109</v>
+        <v>43418.67361111111</v>
       </c>
       <c r="J53">
         <v>24.39</v>
@@ -2609,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>3000.0000000000032</v>
+        <v>-3400.000000000003</v>
       </c>
       <c r="N53">
-        <v>2.5263157894736872</v>
+        <v>-2.863157894736844</v>
       </c>
       <c r="O53">
-        <v>3000.0000000000032</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-3400.000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2629,7 +2616,7 @@
         <v>15</v>
       </c>
       <c r="F54" s="2">
-        <v>43418.673611111109</v>
+        <v>43418.67361111111</v>
       </c>
       <c r="G54">
         <v>24.39</v>
@@ -2638,7 +2625,7 @@
         <v>5000</v>
       </c>
       <c r="I54" s="2">
-        <v>43419.673611111109</v>
+        <v>43419.67361111111</v>
       </c>
       <c r="J54">
         <v>24.1</v>
@@ -2650,16 +2637,16 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>-1649.9999999999959</v>
+        <v>1249.999999999996</v>
       </c>
       <c r="N54">
-        <v>-1.3530135301352979</v>
+        <v>1.025010250102498</v>
       </c>
       <c r="O54">
-        <v>-1649.9999999999959</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1249.999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2670,7 +2657,7 @@
         <v>15</v>
       </c>
       <c r="F55" s="2">
-        <v>43419.673611111109</v>
+        <v>43419.67361111111</v>
       </c>
       <c r="G55">
         <v>24.1</v>
@@ -2679,7 +2666,7 @@
         <v>5000</v>
       </c>
       <c r="I55" s="2">
-        <v>43420.673611111109</v>
+        <v>43420.67361111111</v>
       </c>
       <c r="J55">
         <v>24.21</v>
@@ -2691,16 +2678,16 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>349.99999999999721</v>
+        <v>-749.9999999999972</v>
       </c>
       <c r="N55">
-        <v>0.29045643153526729</v>
+        <v>-0.6224066390041469</v>
       </c>
       <c r="O55">
-        <v>349.99999999999721</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-749.9999999999972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2711,7 +2698,7 @@
         <v>15</v>
       </c>
       <c r="F56" s="2">
-        <v>43420.673611111109</v>
+        <v>43420.67361111111</v>
       </c>
       <c r="G56">
         <v>24.21</v>
@@ -2720,7 +2707,7 @@
         <v>5000</v>
       </c>
       <c r="I56" s="2">
-        <v>43423.673611111109</v>
+        <v>43423.67361111111</v>
       </c>
       <c r="J56">
         <v>23.89</v>
@@ -2732,16 +2719,16 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>-1800.0000000000009</v>
+        <v>1400.000000000001</v>
       </c>
       <c r="N56">
-        <v>-1.4869888475836439</v>
+        <v>1.156546881453946</v>
       </c>
       <c r="O56">
-        <v>-1800.0000000000009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+        <v>1400.000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2752,7 +2739,7 @@
         <v>15</v>
       </c>
       <c r="F57" s="2">
-        <v>43423.673611111109</v>
+        <v>43423.67361111111</v>
       </c>
       <c r="G57">
         <v>23.89</v>
@@ -2761,7 +2748,7 @@
         <v>5000</v>
       </c>
       <c r="I57" s="2">
-        <v>43424.673611111109</v>
+        <v>43424.67361111111</v>
       </c>
       <c r="J57">
         <v>24.75</v>
@@ -2773,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>4099.9999999999973</v>
+        <v>-4499.999999999997</v>
       </c>
       <c r="N57">
-        <v>3.4323984930933422</v>
+        <v>-3.767266638760986</v>
       </c>
       <c r="O57">
-        <v>4099.9999999999973</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-4499.999999999997</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2793,7 +2780,7 @@
         <v>15</v>
       </c>
       <c r="F58" s="2">
-        <v>43424.673611111109</v>
+        <v>43424.67361111111</v>
       </c>
       <c r="G58">
         <v>24.75</v>
@@ -2802,7 +2789,7 @@
         <v>5000</v>
       </c>
       <c r="I58" s="2">
-        <v>43425.673611111109</v>
+        <v>43425.67361111111</v>
       </c>
       <c r="J58">
         <v>24.8</v>
@@ -2814,16 +2801,16 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>50.000000000003553</v>
+        <v>-450.0000000000035</v>
       </c>
       <c r="N58">
-        <v>4.040404040404328E-2</v>
+        <v>-0.3636363636363665</v>
       </c>
       <c r="O58">
-        <v>50.000000000003553</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-450.0000000000035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2834,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="F59" s="2">
-        <v>43425.673611111109</v>
+        <v>43425.67361111111</v>
       </c>
       <c r="G59">
         <v>24.8</v>
@@ -2843,7 +2830,7 @@
         <v>5000</v>
       </c>
       <c r="I59" s="2">
-        <v>43426.673611111109</v>
+        <v>43426.67361111111</v>
       </c>
       <c r="J59">
         <v>23.51</v>
@@ -2855,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>-6649.9999999999955</v>
+        <v>6249.999999999995</v>
       </c>
       <c r="N59">
-        <v>-5.3629032258064484</v>
+        <v>5.040322580645157</v>
       </c>
       <c r="O59">
-        <v>-6649.9999999999955</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+        <v>6249.999999999995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2875,7 +2862,7 @@
         <v>15</v>
       </c>
       <c r="F60" s="2">
-        <v>43426.673611111109</v>
+        <v>43426.67361111111</v>
       </c>
       <c r="G60">
         <v>23.51</v>
@@ -2884,7 +2871,7 @@
         <v>5000</v>
       </c>
       <c r="I60" s="2">
-        <v>43427.673611111109</v>
+        <v>43427.67361111111</v>
       </c>
       <c r="J60">
         <v>23.51</v>
@@ -2899,13 +2886,13 @@
         <v>-200</v>
       </c>
       <c r="N60">
-        <v>-0.17014036580178649</v>
+        <v>-0.1701403658017865</v>
       </c>
       <c r="O60">
         <v>-200</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2916,7 +2903,7 @@
         <v>15</v>
       </c>
       <c r="F61" s="2">
-        <v>43427.673611111109</v>
+        <v>43427.67361111111</v>
       </c>
       <c r="G61">
         <v>23.51</v>
@@ -2925,7 +2912,7 @@
         <v>5000</v>
       </c>
       <c r="I61" s="2">
-        <v>43430.673611111109</v>
+        <v>43430.67361111111</v>
       </c>
       <c r="J61">
         <v>24.17</v>
@@ -2937,16 +2924,16 @@
         <v>0</v>
       </c>
       <c r="M61">
-        <v>3100.0000000000009</v>
+        <v>-3500.000000000001</v>
       </c>
       <c r="N61">
-        <v>2.6371756699276911</v>
+        <v>-2.977456401531263</v>
       </c>
       <c r="O61">
-        <v>3100.0000000000009</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-3500.000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2957,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="F62" s="2">
-        <v>43430.673611111109</v>
+        <v>43430.67361111111</v>
       </c>
       <c r="G62">
         <v>24.17</v>
@@ -2966,7 +2953,7 @@
         <v>5000</v>
       </c>
       <c r="I62" s="2">
-        <v>43431.673611111109</v>
+        <v>43431.67361111111</v>
       </c>
       <c r="J62">
         <v>24.39</v>
@@ -2978,16 +2965,16 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>899.99999999999432</v>
+        <v>-1299.999999999994</v>
       </c>
       <c r="N62">
-        <v>0.74472486553578343</v>
+        <v>-1.0757136946628</v>
       </c>
       <c r="O62">
-        <v>899.99999999999432</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-1299.999999999994</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2998,7 +2985,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="2">
-        <v>43431.673611111109</v>
+        <v>43431.67361111111</v>
       </c>
       <c r="G63">
         <v>24.39</v>
@@ -3007,7 +2994,7 @@
         <v>5000</v>
       </c>
       <c r="I63" s="2">
-        <v>43432.673611111109</v>
+        <v>43432.67361111111</v>
       </c>
       <c r="J63">
         <v>24.76</v>
@@ -3019,16 +3006,16 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>1650.000000000005</v>
+        <v>-2050.000000000005</v>
       </c>
       <c r="N63">
-        <v>1.353013530135305</v>
+        <v>-1.681016810168106</v>
       </c>
       <c r="O63">
-        <v>1650.000000000005</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-2050.000000000005</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -3039,7 +3026,7 @@
         <v>15</v>
       </c>
       <c r="F64" s="2">
-        <v>43432.673611111109</v>
+        <v>43432.67361111111</v>
       </c>
       <c r="G64">
         <v>24.76</v>
@@ -3048,7 +3035,7 @@
         <v>5000</v>
       </c>
       <c r="I64" s="2">
-        <v>43433.673611111109</v>
+        <v>43433.67361111111</v>
       </c>
       <c r="J64">
         <v>24.83</v>
@@ -3060,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>149.9999999999836</v>
+        <v>-549.9999999999836</v>
       </c>
       <c r="N64">
-        <v>0.121163166397402</v>
+        <v>-0.4442649434571757</v>
       </c>
       <c r="O64">
-        <v>149.9999999999836</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+        <v>-549.9999999999836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3080,7 +3067,7 @@
         <v>15</v>
       </c>
       <c r="F65" s="2">
-        <v>43433.673611111109</v>
+        <v>43433.67361111111</v>
       </c>
       <c r="G65">
         <v>24.83</v>
@@ -3089,7 +3076,7 @@
         <v>5000</v>
       </c>
       <c r="I65" s="2">
-        <v>43434.673611111109</v>
+        <v>43434.67361111111</v>
       </c>
       <c r="J65">
         <v>24.14</v>
@@ -3101,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>-3649.9999999999891</v>
+        <v>3249.999999999989</v>
       </c>
       <c r="N65">
-        <v>-2.939991945227538</v>
+        <v>2.61780104712041</v>
       </c>
       <c r="O65">
-        <v>-3649.9999999999891</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+        <v>3249.999999999989</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3121,7 +3108,7 @@
         <v>15</v>
       </c>
       <c r="F66" s="2">
-        <v>43434.673611111109</v>
+        <v>43434.67361111111</v>
       </c>
       <c r="G66">
         <v>24.14</v>
@@ -3139,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>-1.6570008285004139E-3</v>
+        <v>-0.001657000828500414</v>
       </c>
       <c r="O66">
         <v>-200</v>
